--- a/Data/Calculate specimen cup desired final weight.xlsx
+++ b/Data/Calculate specimen cup desired final weight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/cmcmillan_ucdavis_edu/Documents/Documents/Github/CUE-UCD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{2F3A0254-E365-4360-9137-E2295C9B4250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91BC34D-1CCE-4F4B-BC11-7AE841C84439}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{2F3A0254-E365-4360-9137-E2295C9B4250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A92ABADA-BC55-487C-8023-AB7598D9164B}"/>
   <bookViews>
-    <workbookView xWindow="-28965" yWindow="1590" windowWidth="29130" windowHeight="15810" xr2:uid="{6EE7651C-E92C-4559-897D-C7BEB2EE0E85}"/>
+    <workbookView xWindow="-28920" yWindow="1635" windowWidth="29040" windowHeight="15720" xr2:uid="{6EE7651C-E92C-4559-897D-C7BEB2EE0E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFA118C-A0F2-45DD-ACF6-5560F8C1579D}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="V2" sqref="V2:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +506,7 @@
     <col min="19" max="19" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -602,7 +601,7 @@
         <v>0.39465</v>
       </c>
       <c r="M2">
-        <f>N2-O2</f>
+        <f t="shared" ref="M2:M11" si="0">N2-O2</f>
         <v>28.78</v>
       </c>
       <c r="N2" s="1">
@@ -624,11 +623,23 @@
         <v>5.6466359999999991</v>
       </c>
       <c r="S2">
-        <f>R2+P2+O2</f>
+        <f t="shared" ref="S2:S11" si="1">R2+P2+O2</f>
         <v>33.195576000000003</v>
       </c>
+      <c r="T2">
+        <f>P2/(S2-O2)</f>
+        <v>0.77427519558214453</v>
+      </c>
+      <c r="U2">
+        <f>T2*2</f>
+        <v>1.5485503911642891</v>
+      </c>
+      <c r="V2">
+        <f>(2-U2)/20</f>
+        <v>2.2572480441785548E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -645,19 +656,19 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">F3*2</f>
+        <f t="shared" ref="G3:G11" si="2">F3*2</f>
         <v>1.6080000000000001</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="1">2-G3</f>
+        <f t="shared" ref="H3:H11" si="3">2-G3</f>
         <v>0.3919999999999999</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="2">H3*0.6</f>
+        <f t="shared" ref="I3:I11" si="4">H3*0.6</f>
         <v>0.23519999999999994</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="3">G3+I3</f>
+        <f t="shared" ref="J3:J11" si="5">G3+I3</f>
         <v>1.8431999999999999</v>
       </c>
       <c r="K3">
@@ -667,7 +678,7 @@
         <v>0.39434999999999998</v>
       </c>
       <c r="M3">
-        <f>N3-O3</f>
+        <f t="shared" si="0"/>
         <v>46.120000000000005</v>
       </c>
       <c r="N3" s="1">
@@ -677,23 +688,35 @@
         <v>8.19</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P11" si="4">M3*F3</f>
+        <f t="shared" ref="P3:P11" si="6">M3*F3</f>
         <v>37.080480000000009</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q11" si="5">M3-P3</f>
+        <f t="shared" ref="Q3:Q11" si="7">M3-P3</f>
         <v>9.039519999999996</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R11" si="6">Q3*0.6</f>
+        <f t="shared" ref="R3:R11" si="8">Q3*0.6</f>
         <v>5.4237119999999974</v>
       </c>
       <c r="S3">
-        <f>R3+P3+O3</f>
+        <f t="shared" si="1"/>
         <v>50.694192000000001</v>
       </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T11" si="9">P3/(S3-O3)</f>
+        <v>0.87239583333333348</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U11" si="10">T3*2</f>
+        <v>1.744791666666667</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V11" si="11">(2-U3)/20</f>
+        <v>1.2760416666666653E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -713,19 +736,19 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.21</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72599999999999998</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.516</v>
       </c>
       <c r="K4">
@@ -735,7 +758,7 @@
         <v>0.25395000000000001</v>
       </c>
       <c r="M4">
-        <f>N4-O4</f>
+        <f t="shared" si="0"/>
         <v>32.85</v>
       </c>
       <c r="N4" s="1">
@@ -749,7 +772,7 @@
         <v>27.7254</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1246000000000009</v>
       </c>
       <c r="R4">
@@ -757,11 +780,23 @@
         <v>5.1246000000000009</v>
       </c>
       <c r="S4">
-        <f>R4+P4+O4</f>
+        <f t="shared" si="1"/>
         <v>41.03</v>
       </c>
+      <c r="T4">
+        <f t="shared" si="9"/>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="10"/>
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="11"/>
+        <v>1.5600000000000003E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -778,19 +813,19 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1419999999999999</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.8580000000000001</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51480000000000004</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6568000000000001</v>
       </c>
       <c r="K5">
@@ -800,7 +835,7 @@
         <v>0.38550000000000001</v>
       </c>
       <c r="M5">
-        <f>N5-O5</f>
+        <f t="shared" si="0"/>
         <v>29.700000000000003</v>
       </c>
       <c r="N5" s="1">
@@ -810,23 +845,35 @@
         <v>8.4</v>
       </c>
       <c r="P5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.9587</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.741300000000003</v>
       </c>
       <c r="R5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6447800000000008</v>
       </c>
       <c r="S5">
-        <f>R5+P5+O5</f>
+        <f t="shared" si="1"/>
         <v>33.003480000000003</v>
       </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>0.68928054080154499</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="10"/>
+        <v>1.37856108160309</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="11"/>
+        <v>3.1071945919845502E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -843,19 +890,19 @@
         <v>0.95</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.96</v>
       </c>
       <c r="K6">
@@ -865,7 +912,7 @@
         <v>0.54074999999999995</v>
       </c>
       <c r="M6">
-        <f>N6-O6</f>
+        <f t="shared" si="0"/>
         <v>55.71</v>
       </c>
       <c r="N6" s="1">
@@ -879,19 +926,31 @@
         <v>52.924500000000002</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.785499999999999</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6712999999999993</v>
       </c>
       <c r="S6">
-        <f>R6+P6+O6</f>
+        <f t="shared" si="1"/>
         <v>62.995800000000003</v>
       </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>0.96938775510204078</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="10"/>
+        <v>1.9387755102040816</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="11"/>
+        <v>3.0612244897959217E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -908,19 +967,19 @@
         <v>0.65300000000000002</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.306</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.69399999999999995</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41639999999999994</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7223999999999999</v>
       </c>
       <c r="K7">
@@ -930,7 +989,7 @@
         <v>0.39884999999999998</v>
       </c>
       <c r="M7">
-        <f>N7-O7</f>
+        <f t="shared" si="0"/>
         <v>54.730000000000004</v>
       </c>
       <c r="N7" s="1">
@@ -940,23 +999,35 @@
         <v>8.4</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35.738690000000005</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.991309999999999</v>
       </c>
       <c r="R7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.394785999999998</v>
       </c>
       <c r="S7">
-        <f>R7+P7+O7</f>
+        <f t="shared" si="1"/>
         <v>55.533476</v>
       </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>0.75824431026474692</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="10"/>
+        <v>1.5164886205294938</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>2.4175568973525307E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -973,19 +1044,19 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3680000000000001</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6319999999999999</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37919999999999993</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7472000000000001</v>
       </c>
       <c r="K8">
@@ -995,7 +1066,7 @@
         <v>0.39434999999999998</v>
       </c>
       <c r="M8">
-        <f>N8-O8</f>
+        <f t="shared" si="0"/>
         <v>15.540000000000001</v>
       </c>
       <c r="N8" s="1">
@@ -1005,23 +1076,35 @@
         <v>8.4</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.629360000000002</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.910639999999999</v>
       </c>
       <c r="R8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9463839999999992</v>
       </c>
       <c r="S8">
-        <f>R8+P8+O8</f>
+        <f t="shared" si="1"/>
         <v>21.975743999999999</v>
       </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>0.78296703296703318</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="10"/>
+        <v>1.5659340659340664</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="11"/>
+        <v>2.1703296703296682E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1041,19 +1124,19 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.054</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94599999999999995</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.56759999999999999</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6215999999999999</v>
       </c>
       <c r="K9">
@@ -1063,7 +1146,7 @@
         <v>0.32129999999999997</v>
       </c>
       <c r="M9">
-        <f>N9-O9</f>
+        <f t="shared" si="0"/>
         <v>33.790000000000006</v>
       </c>
       <c r="N9" s="1">
@@ -1077,7 +1160,7 @@
         <v>28.822870000000005</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9671300000000009</v>
       </c>
       <c r="R9">
@@ -1085,11 +1168,23 @@
         <v>4.9671300000000009</v>
       </c>
       <c r="S9">
-        <f>R9+P9+O9</f>
+        <f t="shared" si="1"/>
         <v>42.06</v>
       </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="10"/>
+        <v>1.706</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="11"/>
+        <v>1.4700000000000001E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1106,19 +1201,19 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.27</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.73</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.438</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.708</v>
       </c>
       <c r="K10">
@@ -1128,7 +1223,7 @@
         <v>0.42104999999999998</v>
       </c>
       <c r="M10">
-        <f>N10-O10</f>
+        <f t="shared" si="0"/>
         <v>32.39</v>
       </c>
       <c r="N10" s="1">
@@ -1138,23 +1233,35 @@
         <v>8.17</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.56765</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.82235</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0934099999999995</v>
       </c>
       <c r="S10">
-        <f>R10+P10+O10</f>
+        <f t="shared" si="1"/>
         <v>35.831060000000001</v>
       </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>0.74355971896955508</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="10"/>
+        <v>1.4871194379391102</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="11"/>
+        <v>2.5644028103044492E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1171,19 +1278,19 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8140000000000001</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18599999999999994</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11159999999999996</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9256</v>
       </c>
       <c r="K11">
@@ -1193,7 +1300,7 @@
         <v>0.52875000000000005</v>
       </c>
       <c r="M11">
-        <f>N11-O11</f>
+        <f t="shared" si="0"/>
         <v>30.75</v>
       </c>
       <c r="N11" s="1">
@@ -1203,45 +1310,33 @@
         <v>8.26</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.890250000000002</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8597499999999982</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.715849999999999</v>
       </c>
       <c r="S11">
-        <f>R11+P11+O11</f>
+        <f t="shared" si="1"/>
         <v>37.866100000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>0.94204403822185279</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="10"/>
+        <v>1.8840880764437056</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="11"/>
+        <v>5.7955961778147214E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Calculate specimen cup desired final weight.xlsx
+++ b/Data/Calculate specimen cup desired final weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucdavis365-my.sharepoint.com/personal/cmcmillan_ucdavis_edu/Documents/Documents/Github/CUE-UCD/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{2F3A0254-E365-4360-9137-E2295C9B4250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A92ABADA-BC55-487C-8023-AB7598D9164B}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{2F3A0254-E365-4360-9137-E2295C9B4250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027034DA-4E06-47E2-8CBF-E4A4114BF99D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1635" windowWidth="29040" windowHeight="15720" xr2:uid="{6EE7651C-E92C-4559-897D-C7BEB2EE0E85}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="29">
   <si>
     <t>Site</t>
-  </si>
-  <si>
-    <t>subplot</t>
   </si>
   <si>
     <t>Aggregatefraction</t>
@@ -109,6 +106,24 @@
   <si>
     <t>Soil + water + container</t>
   </si>
+  <si>
+    <t>g dry per g wet</t>
+  </si>
+  <si>
+    <t>dry soil in 2 g subsample</t>
+  </si>
+  <si>
+    <t>18O addition (20% 18O H2O to reach 1% enrichment in soils)</t>
+  </si>
+  <si>
+    <t>uL 20% 18O</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,10 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,91 +513,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFA118C-A0F2-45DD-ACF6-5560F8C1579D}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V11"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="3"/>
+    <col min="11" max="12" width="8.7265625" style="3"/>
     <col min="14" max="15" width="8.7265625" style="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="18" width="21.81640625" customWidth="1"/>
-    <col min="19" max="19" width="34.54296875" customWidth="1"/>
+    <col min="19" max="19" width="56.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>45441</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.67300000000000004</v>
       </c>
       <c r="G2">
@@ -594,10 +630,10 @@
         <f>G2+I2</f>
         <v>1.7383999999999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.40379999999999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0.39465</v>
       </c>
       <c r="M2">
@@ -623,7 +659,7 @@
         <v>5.6466359999999991</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S11" si="1">R2+P2+O2</f>
+        <f t="shared" ref="S2:S10" si="1">R2+P2+O2</f>
         <v>33.195576000000003</v>
       </c>
       <c r="T2">
@@ -638,21 +674,25 @@
         <f>(2-U2)/20</f>
         <v>2.2572480441785548E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2">
+        <f>V2*1000</f>
+        <v>22.572480441785547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>45441</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.80400000000000005</v>
       </c>
       <c r="G3">
@@ -671,14 +711,14 @@
         <f t="shared" ref="J3:J11" si="5">G3+I3</f>
         <v>1.8431999999999999</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0.4824</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.39434999999999998</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <f>N3-O3</f>
         <v>46.120000000000005</v>
       </c>
       <c r="N3" s="1">
@@ -704,7 +744,7 @@
         <v>50.694192000000001</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T11" si="9">P3/(S3-O3)</f>
+        <f t="shared" ref="T3:T10" si="9">P3/(S3-O3)</f>
         <v>0.87239583333333348</v>
       </c>
       <c r="U3">
@@ -715,24 +755,28 @@
         <f t="shared" ref="V3:V11" si="11">(2-U3)/20</f>
         <v>1.2760416666666653E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="12">V3*1000</f>
+        <v>12.760416666666652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>45441</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0.84399999999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.39500000000000002</v>
       </c>
       <c r="G4">
@@ -751,10 +795,10 @@
         <f t="shared" si="5"/>
         <v>1.516</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.23699999999999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.25395000000000001</v>
       </c>
       <c r="M4">
@@ -784,7 +828,7 @@
         <v>41.03</v>
       </c>
       <c r="T4">
-        <f t="shared" si="9"/>
+        <f>P4/(S4-O4)</f>
         <v>0.84399999999999997</v>
       </c>
       <c r="U4">
@@ -795,21 +839,25 @@
         <f t="shared" si="11"/>
         <v>1.5600000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W4">
+        <f t="shared" si="12"/>
+        <v>15.600000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>45441</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.57099999999999995</v>
       </c>
       <c r="G5">
@@ -828,10 +876,10 @@
         <f t="shared" si="5"/>
         <v>1.6568000000000001</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.34260000000000002</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.38550000000000001</v>
       </c>
       <c r="M5">
@@ -865,28 +913,32 @@
         <v>0.68928054080154499</v>
       </c>
       <c r="U5">
-        <f t="shared" si="10"/>
+        <f>T5*2</f>
         <v>1.37856108160309</v>
       </c>
       <c r="V5">
         <f t="shared" si="11"/>
         <v>3.1071945919845502E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W5">
+        <f t="shared" si="12"/>
+        <v>31.071945919845501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>45441</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.95</v>
       </c>
       <c r="G6">
@@ -905,10 +957,10 @@
         <f t="shared" si="5"/>
         <v>1.96</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.54074999999999995</v>
       </c>
       <c r="M6">
@@ -949,21 +1001,25 @@
         <f t="shared" si="11"/>
         <v>3.0612244897959217E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W6">
+        <f t="shared" si="12"/>
+        <v>3.0612244897959218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>45441</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.65300000000000002</v>
       </c>
       <c r="G7">
@@ -982,10 +1038,10 @@
         <f t="shared" si="5"/>
         <v>1.7223999999999999</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0.39179999999999998</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.39884999999999998</v>
       </c>
       <c r="M7">
@@ -1026,21 +1082,25 @@
         <f t="shared" si="11"/>
         <v>2.4175568973525307E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W7">
+        <f t="shared" si="12"/>
+        <v>24.175568973525309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>45441</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.68400000000000005</v>
       </c>
       <c r="G8">
@@ -1059,10 +1119,10 @@
         <f t="shared" si="5"/>
         <v>1.7472000000000001</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.41039999999999999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.39434999999999998</v>
       </c>
       <c r="M8">
@@ -1103,24 +1163,28 @@
         <f t="shared" si="11"/>
         <v>2.1703296703296682E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W8">
+        <f t="shared" si="12"/>
+        <v>21.703296703296683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>45441</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0.85299999999999998</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.52700000000000002</v>
       </c>
       <c r="G9">
@@ -1139,10 +1203,10 @@
         <f t="shared" si="5"/>
         <v>1.6215999999999999</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0.31619999999999998</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0.32129999999999997</v>
       </c>
       <c r="M9">
@@ -1183,21 +1247,25 @@
         <f t="shared" si="11"/>
         <v>1.4700000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W9">
+        <f t="shared" si="12"/>
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>45441</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
         <v>0.63500000000000001</v>
       </c>
       <c r="G10">
@@ -1216,10 +1284,10 @@
         <f t="shared" si="5"/>
         <v>1.708</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>0.38100000000000001</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.42104999999999998</v>
       </c>
       <c r="M10">
@@ -1260,21 +1328,25 @@
         <f t="shared" si="11"/>
         <v>2.5644028103044492E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W10">
+        <f t="shared" si="12"/>
+        <v>25.644028103044491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
         <v>45441</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
         <v>0.90700000000000003</v>
       </c>
       <c r="G11">
@@ -1293,10 +1365,10 @@
         <f t="shared" si="5"/>
         <v>1.9256</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>0.54420000000000002</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>0.52875000000000005</v>
       </c>
       <c r="M11">
@@ -1322,11 +1394,11 @@
         <v>1.715849999999999</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f>R11+P11+O11</f>
         <v>37.866100000000003</v>
       </c>
       <c r="T11">
-        <f t="shared" si="9"/>
+        <f>P11/(S11-O11)</f>
         <v>0.94204403822185279</v>
       </c>
       <c r="U11">
@@ -1336,6 +1408,5302 @@
       <c r="V11">
         <f t="shared" si="11"/>
         <v>5.7955961778147214E-3</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="12"/>
+        <v>5.7955961778147209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G12">
+        <f>F12*2</f>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="H12">
+        <f>2-G12</f>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="I12">
+        <f>H12*0.6</f>
+        <v>0.39239999999999992</v>
+      </c>
+      <c r="J12">
+        <f>G12+I12</f>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.39465</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M21" si="13">N12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P75" si="14">M12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:Q75" si="15">M12-P12</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R75" si="16">Q12*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S75" si="17">R12+P12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" ref="T12:T75" si="18">P12/(S12-O12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" ref="U12:U75" si="19">T12*2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" ref="V12:V75" si="20">(2-U12)/20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G21" si="21">F13*2</f>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H21" si="22">2-G13</f>
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I21" si="23">H13*0.6</f>
+        <v>0.23519999999999994</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J21" si="24">G13+I13</f>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.4824</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M13">
+        <f>N13-O13</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="21"/>
+        <v>0.79</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="22"/>
+        <v>1.21</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="23"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="24"/>
+        <v>1.516</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M77" si="25">N14-O14</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="21"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="22"/>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="23"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="24"/>
+        <v>1.6568000000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="21"/>
+        <v>1.9</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="22"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="23"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="24"/>
+        <v>1.96</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="21"/>
+        <v>1.306</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="22"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="23"/>
+        <v>0.41639999999999994</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="24"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.39884999999999998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="21"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="22"/>
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="23"/>
+        <v>0.37919999999999993</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="24"/>
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="21"/>
+        <v>1.054</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="22"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="23"/>
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="24"/>
+        <v>1.6215999999999999</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="21"/>
+        <v>1.27</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="22"/>
+        <v>0.73</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="23"/>
+        <v>0.438</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="24"/>
+        <v>1.708</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.42104999999999998</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="21"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="22"/>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="23"/>
+        <v>0.11159999999999996</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="24"/>
+        <v>1.9256</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G85" si="26">F22*2</f>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H85" si="27">2-G22</f>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I85" si="28">H22*0.6</f>
+        <v>0.39239999999999992</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J85" si="29">G22+I22</f>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.39465</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="26"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="27"/>
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="28"/>
+        <v>0.23519999999999994</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="29"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.4824</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="26"/>
+        <v>0.79</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="27"/>
+        <v>1.21</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="28"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="29"/>
+        <v>1.516</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="26"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="27"/>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="28"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="29"/>
+        <v>1.6568000000000001</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="26"/>
+        <v>1.9</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="27"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="28"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="29"/>
+        <v>1.96</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="26"/>
+        <v>1.306</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="27"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="28"/>
+        <v>0.41639999999999994</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="29"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.39884999999999998</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="26"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="27"/>
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="28"/>
+        <v>0.37919999999999993</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="29"/>
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="26"/>
+        <v>1.054</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="27"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="28"/>
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="29"/>
+        <v>1.6215999999999999</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="26"/>
+        <v>1.27</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="27"/>
+        <v>0.73</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="28"/>
+        <v>0.438</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="29"/>
+        <v>1.708</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.42104999999999998</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="26"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="27"/>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="28"/>
+        <v>0.11159999999999996</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="29"/>
+        <v>1.9256</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="26"/>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="27"/>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="28"/>
+        <v>0.39239999999999992</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="29"/>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.39465</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="26"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="27"/>
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="28"/>
+        <v>0.23519999999999994</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="29"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.4824</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="26"/>
+        <v>0.79</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="27"/>
+        <v>1.21</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="28"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="29"/>
+        <v>1.516</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="26"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="27"/>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="28"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="29"/>
+        <v>1.6568000000000001</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T35" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="26"/>
+        <v>1.9</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="27"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="28"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="29"/>
+        <v>1.96</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T36" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="26"/>
+        <v>1.306</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="27"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="28"/>
+        <v>0.41639999999999994</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="29"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.39884999999999998</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T37" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="26"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="27"/>
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="28"/>
+        <v>0.37919999999999993</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="29"/>
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T38" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="26"/>
+        <v>1.054</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="27"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="28"/>
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="29"/>
+        <v>1.6215999999999999</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T39" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U39" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="26"/>
+        <v>1.27</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="27"/>
+        <v>0.73</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="28"/>
+        <v>0.438</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="29"/>
+        <v>1.708</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.42104999999999998</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="26"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="27"/>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="28"/>
+        <v>0.11159999999999996</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="29"/>
+        <v>1.9256</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T41" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="26"/>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="27"/>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="28"/>
+        <v>0.39239999999999992</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="29"/>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.39465</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T42" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V42" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W42" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="26"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="27"/>
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="28"/>
+        <v>0.23519999999999994</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="29"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.4824</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="26"/>
+        <v>0.79</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="27"/>
+        <v>1.21</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="28"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="29"/>
+        <v>1.516</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W44" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="26"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="27"/>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="28"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="29"/>
+        <v>1.6568000000000001</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T45" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W45" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="26"/>
+        <v>1.9</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="27"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="28"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="29"/>
+        <v>1.96</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T46" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U46" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="26"/>
+        <v>1.306</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="27"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="28"/>
+        <v>0.41639999999999994</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="29"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.39884999999999998</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T47" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U47" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V47" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W47" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="26"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="27"/>
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="28"/>
+        <v>0.37919999999999993</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="29"/>
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U48" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V48" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W48" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="26"/>
+        <v>1.054</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="27"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="28"/>
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="29"/>
+        <v>1.6215999999999999</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T49" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U49" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V49" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W49" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="26"/>
+        <v>1.27</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="27"/>
+        <v>0.73</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="28"/>
+        <v>0.438</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="29"/>
+        <v>1.708</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.42104999999999998</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U50" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V50" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W50" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="26"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="27"/>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="28"/>
+        <v>0.11159999999999996</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="29"/>
+        <v>1.9256</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T51" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U51" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V51" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W51" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="26"/>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="27"/>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="28"/>
+        <v>0.39239999999999992</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="29"/>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.39465</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T52" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U52" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V52" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W52" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="26"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="27"/>
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="28"/>
+        <v>0.23519999999999994</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="29"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.4824</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T53" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U53" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V53" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W53" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="26"/>
+        <v>0.79</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="27"/>
+        <v>1.21</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="28"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="29"/>
+        <v>1.516</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T54" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U54" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V54" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W54" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="26"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="27"/>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="28"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="29"/>
+        <v>1.6568000000000001</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T55" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U55" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V55" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W55" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="26"/>
+        <v>1.9</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="27"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="28"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="29"/>
+        <v>1.96</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T56" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U56" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V56" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="26"/>
+        <v>1.306</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="27"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="28"/>
+        <v>0.41639999999999994</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="29"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.39884999999999998</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T57" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U57" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V57" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W57" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="26"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="27"/>
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="28"/>
+        <v>0.37919999999999993</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="29"/>
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T58" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U58" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V58" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W58" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="26"/>
+        <v>1.054</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="27"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="28"/>
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="29"/>
+        <v>1.6215999999999999</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T59" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V59" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W59" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="26"/>
+        <v>1.27</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="27"/>
+        <v>0.73</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="28"/>
+        <v>0.438</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="29"/>
+        <v>1.708</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0.42104999999999998</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T60" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U60" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V60" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W60" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="26"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="27"/>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="28"/>
+        <v>0.11159999999999996</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="29"/>
+        <v>1.9256</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T61" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U61" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V61" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W61" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="26"/>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="27"/>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="28"/>
+        <v>0.39239999999999992</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="29"/>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0.39465</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T62" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U62" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V62" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W62" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="26"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="27"/>
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="28"/>
+        <v>0.23519999999999994</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="29"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.4824</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T63" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U63" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V63" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W63" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="26"/>
+        <v>0.79</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="27"/>
+        <v>1.21</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="28"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="29"/>
+        <v>1.516</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T64" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U64" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V64" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W64" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="26"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="27"/>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="28"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="29"/>
+        <v>1.6568000000000001</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T65" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U65" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V65" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W65" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="26"/>
+        <v>1.9</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="27"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="28"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="29"/>
+        <v>1.96</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T66" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U66" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V66" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W66" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="26"/>
+        <v>1.306</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="27"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="28"/>
+        <v>0.41639999999999994</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="29"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0.39884999999999998</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T67" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U67" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V67" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W67" t="e">
+        <f t="shared" ref="W67:W81" si="30">V67*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="26"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="27"/>
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="28"/>
+        <v>0.37919999999999993</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="29"/>
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T68" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U68" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V68" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W68" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="26"/>
+        <v>1.054</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="27"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="28"/>
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="29"/>
+        <v>1.6215999999999999</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T69" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U69" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V69" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W69" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="26"/>
+        <v>1.27</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="27"/>
+        <v>0.73</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="28"/>
+        <v>0.438</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="29"/>
+        <v>1.708</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0.42104999999999998</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T70" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U70" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V70" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W70" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="26"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="27"/>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="28"/>
+        <v>0.11159999999999996</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="29"/>
+        <v>1.9256</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T71" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U71" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V71" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W71" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="26"/>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="27"/>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="28"/>
+        <v>0.39239999999999992</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="29"/>
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0.39465</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V72" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W72" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="26"/>
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="27"/>
+        <v>0.3919999999999999</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="28"/>
+        <v>0.23519999999999994</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="29"/>
+        <v>1.8431999999999999</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0.4824</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T73" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U73" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V73" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W73" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="26"/>
+        <v>0.79</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="27"/>
+        <v>1.21</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="28"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="29"/>
+        <v>1.516</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0.25395000000000001</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T74" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U74" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V74" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W74" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="26"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="27"/>
+        <v>0.8580000000000001</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="28"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="29"/>
+        <v>1.6568000000000001</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T75" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U75" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V75" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W75" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="26"/>
+        <v>1.9</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="27"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="28"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="29"/>
+        <v>1.96</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" ref="P76:P81" si="31">M76*F76</f>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ref="Q76:Q81" si="32">M76-P76</f>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" ref="R76:R81" si="33">Q76*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ref="S76:S81" si="34">R76+P76+O76</f>
+        <v>0</v>
+      </c>
+      <c r="T76" t="e">
+        <f t="shared" ref="T76:T81" si="35">P76/(S76-O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U76" t="e">
+        <f t="shared" ref="U76:U81" si="36">T76*2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V76" t="e">
+        <f t="shared" ref="V76:V81" si="37">(2-U76)/20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W76" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="26"/>
+        <v>1.306</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="27"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="28"/>
+        <v>0.41639999999999994</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="29"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0.39884999999999998</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T77" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U77" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V77" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W77" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="26"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="27"/>
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="28"/>
+        <v>0.37919999999999993</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="29"/>
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0.39434999999999998</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ref="M78:M141" si="38">N78-O78</f>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T78" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U78" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V78" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W78" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="26"/>
+        <v>1.054</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="27"/>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="28"/>
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="29"/>
+        <v>1.6215999999999999</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T79" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U79" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V79" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W79" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="26"/>
+        <v>1.27</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="27"/>
+        <v>0.73</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="28"/>
+        <v>0.438</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="29"/>
+        <v>1.708</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0.42104999999999998</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T80" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U80" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V80" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W80" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="26"/>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="27"/>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="28"/>
+        <v>0.11159999999999996</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="29"/>
+        <v>1.9256</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T81" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U81" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V81" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W81" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
